--- a/prep_and_checklists/Nike Day 3  /PREPLIST_NikeDay_3 _08-12-2025_0.xlsx
+++ b/prep_and_checklists/Nike Day 3  /PREPLIST_NikeDay_3 _08-12-2025_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Nike Day 3  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA349673-311E-E441-8EE6-3CC566DEEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CE312-F81F-A149-8FF1-38B608271BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="167">
   <si>
     <t xml:space="preserve">Location: West Room  </t>
   </si>
@@ -161,9 +174,6 @@
     <t>Kit-out / make chimichurri</t>
   </si>
   <si>
-    <t>Portion 6oz / 10% brine steelhead trout fillet</t>
-  </si>
-  <si>
     <t>Slice garlic</t>
   </si>
   <si>
@@ -519,6 +529,12 @@
   </si>
   <si>
     <t>1 pint, * Pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>Portion 4oz / 10% brine steelhead trout fillet, skin-off</t>
+  </si>
+  <si>
+    <t>* See grilled salmon</t>
   </si>
 </sst>
 </file>
@@ -965,23 +981,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -991,21 +1010,21 @@
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1028,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1042,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1056,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1070,13 +1089,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1086,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1094,7 +1113,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1108,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1116,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1130,13 +1149,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1144,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1162,7 +1181,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1176,7 +1195,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1184,13 +1203,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1198,13 +1217,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1212,13 +1231,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1226,13 +1245,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1242,15 +1261,15 @@
         <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1266,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1280,13 +1299,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1294,13 +1313,13 @@
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1308,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1318,14 +1337,14 @@
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>2</v>
@@ -1333,10 +1352,10 @@
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1347,10 +1366,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1358,45 +1377,45 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1404,13 +1423,13 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1418,189 +1437,195 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="8"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>129</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1638,7 @@
     <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="45" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1627,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1637,130 +1662,130 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1769,244 +1794,245 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>